--- a/servo401/parameter_set.xlsx
+++ b/servo401/parameter_set.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>adres</t>
   </si>
@@ -211,6 +211,101 @@
   <si>
     <t>Actual torque producing current Iq *100
 Shows legitimate values only in manual with working encoder, and in FOC</t>
+  </si>
+  <si>
+    <t>Motor pole pairs</t>
+  </si>
+  <si>
+    <t>Number of motor pole pairs</t>
+  </si>
+  <si>
+    <t>uint16 *100</t>
+  </si>
+  <si>
+    <t>Motor nominal current *100</t>
+  </si>
+  <si>
+    <t>Motor nominal RMS current</t>
+  </si>
+  <si>
+    <t>Motor overload factor</t>
+  </si>
+  <si>
+    <t>Motor overload current *100</t>
+  </si>
+  <si>
+    <t>0-400%</t>
+  </si>
+  <si>
+    <t>Motor max voltage</t>
+  </si>
+  <si>
+    <t>Maximum overload of the motor.
+Set below 100% for a current/torque limit.
+Updated when 40024 changed</t>
+  </si>
+  <si>
+    <t>Maximum motor current</t>
+  </si>
+  <si>
+    <t>Maximum motor voltage</t>
+  </si>
+  <si>
+    <t>Encoder angle correction</t>
+  </si>
+  <si>
+    <t>int16 -180-180</t>
+  </si>
+  <si>
+    <t>Using this parameter correct encoder angle to get optimal torque angle. More info in 40012</t>
+  </si>
+  <si>
+    <t>Encoder resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read/write when using ABZ encoder. Read-only for SSI encoders (17-bit encoders are limited to 16-bit) </t>
+  </si>
+  <si>
+    <t>Motor nominal torque [Nm] *100</t>
+  </si>
+  <si>
+    <t>Motor torque produced at nominal current</t>
+  </si>
+  <si>
+    <t>Motor nominal speed</t>
+  </si>
+  <si>
+    <t>Motor nominal speed RPM</t>
+  </si>
+  <si>
+    <t>Motor max speed RPM</t>
+  </si>
+  <si>
+    <t>Motor maximum speed</t>
+  </si>
+  <si>
+    <t>Motor Rs *1000</t>
+  </si>
+  <si>
+    <t>Motor Ls (uH)</t>
+  </si>
+  <si>
+    <t>Motor stator inductance eg. For 3.53mH write 3530.
+Used only for sensorless rotor speed and angle estimation</t>
+  </si>
+  <si>
+    <t>Motor stator resistance eg. Write 639 for 639mOhm.
+Used only for sensorless rotor speed and angle estimation</t>
+  </si>
+  <si>
+    <t>Motor K (V/(rad/s)) *100000</t>
+  </si>
+  <si>
+    <t>Motor speed constant. Amount of volts induced for 1 rad/s speed 
+multiplied by number of pole pairs</t>
+  </si>
+  <si>
+    <t>Motor K V/1000RPM *100</t>
   </si>
 </sst>
 </file>
@@ -538,15 +633,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" customWidth="1"/>
@@ -853,61 +948,243 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>40021</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>40022</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="2">
+        <v>40031</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="2">
+        <v>40032</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>40033</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="2">
+        <v>40034</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="2">
+        <v>40035</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>40036</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>40037</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>40038</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>40039</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>40040</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>40041</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>40042</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/servo401/parameter_set.xlsx
+++ b/servo401/parameter_set.xlsx
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
-  <si>
-    <t>Zmienna w pamieci</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
   <si>
     <t>Error register</t>
   </si>
   <si>
     <t>0-7</t>
-  </si>
-  <si>
-    <t>enum inverter_error_t inverter_error</t>
   </si>
   <si>
     <t>0-1</t>
@@ -59,19 +53,10 @@
 2-Field-oriented-control(need encoder, and correctly set encoder angle offset)</t>
   </si>
   <si>
-    <t>control_mode_t control_mode</t>
-  </si>
-  <si>
-    <t>inverter_state_t inverter_state</t>
-  </si>
-  <si>
     <t>Speed setpoint</t>
   </si>
   <si>
     <t>INT16</t>
-  </si>
-  <si>
-    <t>speed_setpoint_deg_s/speed_setpoint_rpm</t>
   </si>
   <si>
     <t>Manual: sets motor voltage in 0-100% of actual DC-link voltage
@@ -89,9 +74,6 @@
   <si>
     <t xml:space="preserve">Manual/open loop: does nothing
 FOC: sets negative I_d current setpoint to field weaken the motor in range of 0 to 100% of nominal motor current </t>
-  </si>
-  <si>
-    <t>id_setpoint</t>
   </si>
   <si>
     <t>Feedback</t>
@@ -105,9 +87,6 @@
 1:ABZ encoder with Z line indexed to electric angle = 0
 2:Mitsubishi encoder - SSI encoder from mitsubishi servomotor
 3:Tamagawa encoder - SSI encoder found for example in some ABB servomotors</t>
-  </si>
-  <si>
-    <t>parameter_set.motor_feedback_type</t>
   </si>
   <si>
     <t>uint16</t>
@@ -364,21 +343,21 @@
     <t>Voltage/torque setpoint*10</t>
   </si>
   <si>
-    <t>Field setpoint+10</t>
-  </si>
-  <si>
     <t>uint8/int16
 0-1000/-3000-3000</t>
   </si>
   <si>
+    <t>Encoder position</t>
+  </si>
+  <si>
+    <t>Raw encoder position pulse reading</t>
+  </si>
+  <si>
     <t>int16
-0-1000</t>
-  </si>
-  <si>
-    <t>Encoder position</t>
-  </si>
-  <si>
-    <t>Raw encoder position pulse reading</t>
+-1000-1000</t>
+  </si>
+  <si>
+    <t>Field setpoint*10</t>
   </si>
 </sst>
 </file>
@@ -531,6 +510,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,9 +521,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,10 +805,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -843,550 +822,529 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40002</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40003</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40005</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40006</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40007</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40008</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40010</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40011</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40012</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40013</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40014</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40015</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40016</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40017</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>103</v>
+      <c r="B17" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40020</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40021</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40022</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40031</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40032</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40033</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40034</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40035</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40036</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40037</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40038</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40039</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40040</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40041</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1397,16 +1355,16 @@
         <v>40050</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,16 +1372,16 @@
         <v>40051</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1431,16 +1389,16 @@
         <v>40052</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1448,16 +1406,16 @@
         <v>40053</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,16 +1423,16 @@
         <v>40054</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1482,16 +1440,16 @@
         <v>40055</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1499,16 +1457,16 @@
         <v>40056</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1516,16 +1474,16 @@
         <v>40057</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/servo401/parameter_set.xlsx
+++ b/servo401/parameter_set.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
   <si>
     <t>Error register</t>
   </si>
@@ -326,17 +326,6 @@
 1st order filter (40057)</t>
   </si>
   <si>
-    <t>Actual error, write 0 to acknowledge
-1-Undervolatage
-2-Overvoltage
-3-Output shortcircuit/current transducer error
-4- Inverter Overcurrent
-5- Motor Overcurrent
-6- encoder error
-7- Internal error
-8-external trip by user</t>
-  </si>
-  <si>
     <t>Control/status register</t>
   </si>
   <si>
@@ -358,6 +347,21 @@
   </si>
   <si>
     <t>Field setpoint*10</t>
+  </si>
+  <si>
+    <t>Actual motor voltage*10</t>
+  </si>
+  <si>
+    <t>Actual motor voltage vector length</t>
+  </si>
+  <si>
+    <t>Actual error, write 0 to acknowledge</t>
+  </si>
+  <si>
+    <t>Encoder acceleration error</t>
+  </si>
+  <si>
+    <t>Number of encoder position errors detected</t>
   </si>
 </sst>
 </file>
@@ -805,10 +809,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -862,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,7 +874,7 @@
         <v>40003</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -921,10 +925,10 @@
         <v>40007</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -938,10 +942,10 @@
         <v>40008</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -1083,7 +1087,7 @@
         <v>40017</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1092,177 +1096,177 @@
         <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>40018</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>40020</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>40021</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>40021</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>40022</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>40031</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>40032</v>
+        <v>40023</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>40033</v>
+        <v>40031</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>37</v>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>40034</v>
+        <v>40032</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>40035</v>
+        <v>40033</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
+      <c r="E26" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>40036</v>
+        <v>40034</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>40037</v>
+        <v>40035</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
@@ -1271,125 +1275,125 @@
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>40036</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>40037</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>40038</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>40039</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>40040</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <v>40039</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>40040</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>40041</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>40050</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>40051</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>40052</v>
+        <v>40050</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
@@ -1398,32 +1402,32 @@
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>40053</v>
+        <v>40051</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>40054</v>
+        <v>40052</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
@@ -1432,32 +1436,32 @@
         <v>4</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>40055</v>
+        <v>40053</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>40056</v>
+        <v>40054</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
@@ -1466,30 +1470,64 @@
         <v>4</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
+        <v>40055</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40056</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>40057</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
